--- a/target/tangsel/Analisis_Work_Life_Balance_Tangsel.xlsx
+++ b/target/tangsel/Analisis_Work_Life_Balance_Tangsel.xlsx
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>41.85</v>
+        <v>42.31</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
@@ -583,28 +583,28 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>42.31</v>
+        <v>42.68</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>42.59</v>
+        <v>42.26</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
@@ -671,28 +671,28 @@
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>42.63</v>
+        <v>42.59</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
@@ -715,28 +715,28 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>42.91</v>
+        <v>42.82</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
@@ -759,28 +759,28 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>42.22</v>
+        <v>42.49</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
